--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kboutarel/Desktop/COS/561/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kboutarel/Desktop/COS/561/Project/DAMIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -117,6 +117,2422 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$B$1,Sheet2!$B$9,Sheet2!$B$17,Sheet2!$B$25,Sheet2!$B$33,Sheet2!$B$41,Sheet2!$B$49,Sheet2!$B$57,Sheet2!$B$65,Sheet2!$B$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$7,Sheet1!$H$15,Sheet1!$H$23,Sheet1!$H$31,Sheet1!$H$39,Sheet1!$H$47,Sheet1!$H$55,Sheet1!$H$63,Sheet1!$H$71,Sheet1!$H$79)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.47619047619048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.35483870967742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.22222222222221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.82926829268293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.43478260869566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.54901960784314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P = 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$B$1,Sheet2!$B$9,Sheet2!$B$17,Sheet2!$B$25,Sheet2!$B$33,Sheet2!$B$41,Sheet2!$B$49,Sheet2!$B$57,Sheet2!$B$65,Sheet2!$B$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$H$7,Sheet2!$H$15,Sheet2!$H$23,Sheet2!$H$31,Sheet2!$H$39,Sheet2!$H$47,Sheet2!$H$55,Sheet2!$H$63,Sheet2!$H$71,Sheet2!$H$79)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.54545454545455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.52380952380953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.53846153846155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.16129032258064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.58536585365854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.08695652173914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.86274509803923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>P = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$B$1,Sheet2!$B$9,Sheet2!$B$17,Sheet2!$B$25,Sheet2!$B$33,Sheet2!$B$41,Sheet2!$B$49,Sheet2!$B$57,Sheet2!$B$65,Sheet2!$B$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet5!$H$7,Sheet5!$H$15,Sheet5!$H$23,Sheet5!$H$31,Sheet5!$H$39,Sheet5!$H$47,Sheet5!$H$55,Sheet5!$H$63,Sheet5!$H$71,Sheet5!$H$79)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.23076923076924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.48387096774192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.17073170731707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.78260869565217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.54901960784313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190574928"/>
+        <c:axId val="190563424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190574928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PATH LENGTH</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190563424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190563424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% PATH recreated</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0226720680357885"/>
+              <c:y val="0.292100826608292"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190574928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$B$1,Sheet2!$B$9,Sheet2!$B$17,Sheet2!$B$25,Sheet2!$B$33,Sheet2!$B$41,Sheet2!$B$49,Sheet2!$B$57,Sheet2!$B$65,Sheet2!$B$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$6,Sheet1!$G$14,Sheet1!$G$22,Sheet1!$G$30,Sheet1!$G$38,Sheet1!$G$46,Sheet1!$G$54,Sheet1!$G$62,Sheet1!$G$70,Sheet1!$G$78)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P = 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$B$1,Sheet2!$B$9,Sheet2!$B$17,Sheet2!$B$25,Sheet2!$B$33,Sheet2!$B$41,Sheet2!$B$49,Sheet2!$B$57,Sheet2!$B$65,Sheet2!$B$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$G$6,Sheet2!$G$14,Sheet2!$G$22,Sheet2!$G$30,Sheet2!$G$38,Sheet2!$G$46,Sheet2!$G$54,Sheet2!$G$62,Sheet2!$G$70,Sheet2!$G$78)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>P = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$B$1,Sheet2!$B$9,Sheet2!$B$17,Sheet2!$B$25,Sheet2!$B$33,Sheet2!$B$41,Sheet2!$B$49,Sheet2!$B$57,Sheet2!$B$65,Sheet2!$B$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet5!$G$6,Sheet5!$G$14,Sheet5!$G$22,Sheet5!$G$30,Sheet5!$G$38,Sheet5!$G$46,Sheet5!$G$54,Sheet5!$G$62,Sheet5!$G$70,Sheet5!$G$78)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="319590384"/>
+        <c:axId val="319592160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="319590384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PATH LENGTH</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319592160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="319592160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FARTHEST</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319590384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,6 +2951,14 @@
       <c r="F7">
         <v>6</v>
       </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>(G7/(F1+1)) * 100</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -675,8 +3099,16 @@
       <c r="F15">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>AVERAGE(B15:F15)</f>
+        <v>10.6</v>
+      </c>
+      <c r="H15">
+        <f>(G15/(F9+1)) * 100</f>
+        <v>96.36363636363636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -696,7 +3128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -716,7 +3148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -736,7 +3168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -756,7 +3188,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -776,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -796,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -815,8 +3247,16 @@
       <c r="F23">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f>AVERAGE(B23:F23)</f>
+        <v>14.4</v>
+      </c>
+      <c r="H23">
+        <f>(G23/(F17+1)) * 100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -836,7 +3276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -856,7 +3296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -876,7 +3316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -896,7 +3336,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -916,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -936,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -955,8 +3395,16 @@
       <c r="F31">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>AVERAGE(B31:F31)</f>
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <f>(G31/(F25+1)) * 100</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -976,7 +3424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -996,7 +3444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +3464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1095,8 +3543,16 @@
       <c r="F39">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f>AVERAGE(B39:F39)</f>
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <f>(G39/(F33+1)) * 100</f>
+        <v>65.384615384615387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +3572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +3592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +3612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +3672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1235,8 +3691,16 @@
       <c r="F47">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f>AVERAGE(B47:F47)</f>
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <f>(G47/(F41+1)) * 100</f>
+        <v>58.064516129032263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +3720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1276,7 +3740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +3760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1336,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +3820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1375,8 +3839,16 @@
       <c r="F55">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f>AVERAGE(B55:F55)</f>
+        <v>16.2</v>
+      </c>
+      <c r="H55">
+        <f>(G55/(F49+1)) * 100</f>
+        <v>44.999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +3868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +3888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +3908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +3968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1515,8 +3987,16 @@
       <c r="F63">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f>AVERAGE(B63:F63)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H63">
+        <f>(G63/(F57+1)) * 100</f>
+        <v>42.926829268292686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +4016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +4036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +4056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +4116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1655,8 +4135,16 @@
       <c r="F71">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <f>AVERAGE(B71:F71)</f>
+        <v>16.8</v>
+      </c>
+      <c r="H71">
+        <f>(G71/(F65+1)) * 100</f>
+        <v>36.521739130434781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +4164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +4184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +4204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +4264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1794,6 +4282,14 @@
       </c>
       <c r="F79">
         <v>17</v>
+      </c>
+      <c r="G79">
+        <f>AVERAGE(B79:F79)</f>
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <f>(G79/(F73+1)) * 100</f>
+        <v>31.372549019607842</v>
       </c>
     </row>
   </sheetData>
@@ -1805,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1937,6 +4433,10 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <f>CEILING(AVERAGE(B6:F6),1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1957,6 +4457,14 @@
       <c r="F7">
         <v>6</v>
       </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>(G7/(F1+1)) * 100</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2077,6 +4585,10 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <f>CEILING(AVERAGE(B14:F14),1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2097,8 +4609,16 @@
       <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>AVERAGE(B15:F15)</f>
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <f>(G15/(F9+1)) * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +4638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2138,7 +4658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +4678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +4698,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2217,8 +4737,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f>CEILING(AVERAGE(B22:F22),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2237,8 +4761,16 @@
       <c r="F23">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f>AVERAGE(B23:F23)</f>
+        <v>15.8</v>
+      </c>
+      <c r="H23">
+        <f>(G23/(F17+1)) * 100</f>
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +4790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2278,7 +4810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +4830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +4850,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2338,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2357,8 +4889,12 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f>CEILING(AVERAGE(B30:F30),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2377,8 +4913,16 @@
       <c r="F31">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>AVERAGE(B31:F31)</f>
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <f>(G31/(F25+1)) * 100</f>
+        <v>90.476190476190482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +4942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2418,7 +4962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2438,7 +4982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +5002,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2497,8 +5041,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f>CEILING(AVERAGE(B38:F38),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2517,8 +5065,16 @@
       <c r="F39">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f>AVERAGE(B39:F39)</f>
+        <v>23.6</v>
+      </c>
+      <c r="H39">
+        <f>(G39/(F33+1)) * 100</f>
+        <v>90.769230769230774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2538,7 +5094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +5114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +5134,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2598,7 +5154,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2618,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2637,8 +5193,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f>CEILING(AVERAGE(B46:F46),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2657,8 +5217,16 @@
       <c r="F47">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f>AVERAGE(B47:F47)</f>
+        <v>24.6</v>
+      </c>
+      <c r="H47">
+        <f>(G47/(F41+1)) * 100</f>
+        <v>79.354838709677423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +5246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +5266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2718,7 +5286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +5306,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2758,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +5345,12 @@
       <c r="F54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f>CEILING(AVERAGE(B54:F54),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +5369,16 @@
       <c r="F55">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f>AVERAGE(B55:F55)</f>
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <f>(G55/(F49+1)) * 100</f>
+        <v>72.222222222222214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +5398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2838,7 +5418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2858,7 +5438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2878,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2898,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2917,8 +5497,12 @@
       <c r="F62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f>CEILING(AVERAGE(B62:F62),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2937,8 +5521,16 @@
       <c r="F63">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f>AVERAGE(B63:F63)</f>
+        <v>27.4</v>
+      </c>
+      <c r="H63">
+        <f>(G63/(F57+1)) * 100</f>
+        <v>66.829268292682926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +5550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +5570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2998,7 +5590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3018,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +5649,12 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <f>CEILING(AVERAGE(B70:F70),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3077,8 +5673,16 @@
       <c r="F71">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <f>AVERAGE(B71:F71)</f>
+        <v>27.8</v>
+      </c>
+      <c r="H71">
+        <f>(G71/(F65+1)) * 100</f>
+        <v>60.434782608695656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3098,7 +5702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +5722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3138,7 +5742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3158,7 +5762,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +5801,12 @@
       <c r="F78">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <f>CEILING(AVERAGE(B78:F78),1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3216,6 +5824,14 @@
       </c>
       <c r="F79">
         <v>26</v>
+      </c>
+      <c r="G79">
+        <f>AVERAGE(B79:F79)</f>
+        <v>26.8</v>
+      </c>
+      <c r="H79">
+        <f>(G79/(F73+1)) * 100</f>
+        <v>52.549019607843142</v>
       </c>
     </row>
   </sheetData>
@@ -3227,8 +5843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3358,6 +5974,10 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <f>CEILING(AVERAGE(B6:F6), 1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3378,6 +5998,14 @@
       <c r="F7">
         <v>6</v>
       </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>(G7/(F1+1)) * 100</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3498,6 +6126,10 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <f>CEILING(AVERAGE(B14:F14), 1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3518,8 +6150,16 @@
       <c r="F15">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>AVERAGE(B15:F15)</f>
+        <v>10.4</v>
+      </c>
+      <c r="H15">
+        <f>(G15/(F9+1)) * 100</f>
+        <v>94.545454545454547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +6179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3559,7 +6199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3579,7 +6219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3599,7 +6239,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3619,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3638,8 +6278,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f>CEILING(AVERAGE(B22:F22), 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3658,8 +6302,16 @@
       <c r="F23">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f>AVERAGE(B23:F23)</f>
+        <v>15.8</v>
+      </c>
+      <c r="H23">
+        <f>(G23/(F17+1)) * 100</f>
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +6331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3699,7 +6351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3719,7 +6371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -3739,7 +6391,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -3759,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3778,8 +6430,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f>CEILING(AVERAGE(B30:F30), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3798,8 +6454,16 @@
       <c r="F31">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>AVERAGE(B31:F31)</f>
+        <v>18.8</v>
+      </c>
+      <c r="H31">
+        <f>(G31/(F25+1)) * 100</f>
+        <v>89.523809523809533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +6483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +6503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3859,7 +6523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3879,7 +6543,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3899,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3918,8 +6582,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f>CEILING(AVERAGE(B38:F38), 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3938,8 +6606,16 @@
       <c r="F39">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f>AVERAGE(B39:F39)</f>
+        <v>23.8</v>
+      </c>
+      <c r="H39">
+        <f>(G39/(F33+1)) * 100</f>
+        <v>91.538461538461547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +6635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3979,7 +6655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3999,7 +6675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -4019,7 +6695,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -4058,8 +6734,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f>CEILING(AVERAGE(B46:F46), 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4078,8 +6758,16 @@
       <c r="F47">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f>AVERAGE(B47:F47)</f>
+        <v>26.4</v>
+      </c>
+      <c r="H47">
+        <f>(G47/(F41+1)) * 100</f>
+        <v>85.161290322580641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +6787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +6807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -4139,7 +6827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4159,7 +6847,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -4198,8 +6886,12 @@
       <c r="F54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f>CEILING(AVERAGE(B54:F54), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -4218,8 +6910,16 @@
       <c r="F55">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f>AVERAGE(B55:F55)</f>
+        <v>29.4</v>
+      </c>
+      <c r="H55">
+        <f>(G55/(F49+1)) * 100</f>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4239,7 +6939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4279,7 +6979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -4299,7 +6999,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -4338,8 +7038,12 @@
       <c r="F62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f>CEILING(AVERAGE(B62:F62), 1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -4358,8 +7062,16 @@
       <c r="F63">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f>AVERAGE(B63:F63)</f>
+        <v>31.4</v>
+      </c>
+      <c r="H63">
+        <f>(G63/(F57+1)) * 100</f>
+        <v>76.585365853658544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4379,7 +7091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -4399,7 +7111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -4419,7 +7131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -4439,7 +7151,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -4478,8 +7190,12 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <f>CEILING(AVERAGE(B70:F70), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -4498,8 +7214,16 @@
       <c r="F71">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <f>AVERAGE(B71:F71)</f>
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <f>(G71/(F65+1)) * 100</f>
+        <v>76.08695652173914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +7243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -4539,7 +7263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -4559,7 +7283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -4579,7 +7303,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -4599,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -4618,8 +7342,12 @@
       <c r="F78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <f>CEILING(AVERAGE(B78:F78), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -4638,9 +7366,18 @@
       <c r="F79">
         <v>39</v>
       </c>
+      <c r="G79">
+        <f>AVERAGE(B79:F79)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H79">
+        <f>(G79/(F73+1)) * 100</f>
+        <v>76.862745098039227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4648,8 +7385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4779,6 +7516,10 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <f>CEILING(AVERAGE(B6:F6), 1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4799,6 +7540,14 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>5.6</v>
+      </c>
+      <c r="H7">
+        <f>(G7/(F1+1)) * 100</f>
+        <v>93.333333333333329</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4919,6 +7668,10 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <f>CEILING(AVERAGE(B14:F14), 1)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4939,8 +7692,16 @@
       <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>AVERAGE(B15:F15)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H15">
+        <f>(G15/(F9+1)) * 100</f>
+        <v>83.636363636363626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +7721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -4980,7 +7741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5000,7 +7761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -5020,7 +7781,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -5040,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +7820,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f>CEILING(AVERAGE(B22:F22), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -5079,8 +7844,16 @@
       <c r="F23">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f>AVERAGE(B23:F23)</f>
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <f>(G23/(F17+1)) * 100</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +7873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -5120,7 +7893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -5140,7 +7913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -5160,7 +7933,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5180,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -5199,8 +7972,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f>CEILING(AVERAGE(B30:F30), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5219,8 +7996,16 @@
       <c r="F31">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>AVERAGE(B31:F31)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H31">
+        <f>(G31/(F25+1)) * 100</f>
+        <v>83.80952380952381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +8025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -5260,7 +8045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5280,7 +8065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -5300,7 +8085,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5320,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +8124,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f>CEILING(AVERAGE(B38:F38), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5359,8 +8148,16 @@
       <c r="F39">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f>AVERAGE(B39:F39)</f>
+        <v>20.6</v>
+      </c>
+      <c r="H39">
+        <f>(G39/(F33+1)) * 100</f>
+        <v>79.230769230769241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5380,7 +8177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5400,7 +8197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -5420,7 +8217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -5440,7 +8237,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -5479,8 +8276,12 @@
       <c r="F46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f>CEILING(AVERAGE(B46:F46), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5499,8 +8300,16 @@
       <c r="F47">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f>AVERAGE(B47:F47)</f>
+        <v>23.4</v>
+      </c>
+      <c r="H47">
+        <f>(G47/(F41+1)) * 100</f>
+        <v>75.483870967741922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +8329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -5540,7 +8349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -5560,7 +8369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -5580,7 +8389,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -5600,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -5619,8 +8428,12 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f>CEILING(AVERAGE(B54:F54), 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -5639,8 +8452,16 @@
       <c r="F55">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f>AVERAGE(B55:F55)</f>
+        <v>29.4</v>
+      </c>
+      <c r="H55">
+        <f>(G55/(F49+1)) * 100</f>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5660,7 +8481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -5680,7 +8501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5700,7 +8521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -5720,7 +8541,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -5740,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -5759,8 +8580,12 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f>CEILING(AVERAGE(B62:F62), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -5779,8 +8604,16 @@
       <c r="F63">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f>AVERAGE(B63:F63)</f>
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <f>(G63/(F57+1)) * 100</f>
+        <v>73.170731707317074</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5800,7 +8633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -5820,7 +8653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -5840,7 +8673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5860,7 +8693,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -5880,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -5899,8 +8732,12 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <f>CEILING(AVERAGE(B70:F70), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -5919,8 +8756,16 @@
       <c r="F71">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <f>AVERAGE(B71:F71)</f>
+        <v>34.4</v>
+      </c>
+      <c r="H71">
+        <f>(G71/(F65+1)) * 100</f>
+        <v>74.782608695652172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5940,7 +8785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -5960,7 +8805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -5980,7 +8825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -6000,7 +8845,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -6020,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -6039,8 +8884,12 @@
       <c r="F78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <f>CEILING(AVERAGE(B78:F78), 1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -6058,6 +8907,14 @@
       </c>
       <c r="F79">
         <v>32</v>
+      </c>
+      <c r="G79">
+        <f>AVERAGE(B79:F79)</f>
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <f>(G79/(F73+1)) * 100</f>
+        <v>72.549019607843135</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="11">
   <si>
     <t>Path length</t>
   </si>
@@ -64,9 +63,6 @@
   </si>
   <si>
     <t>P = 49</t>
-  </si>
-  <si>
-    <t>P = 89</t>
   </si>
 </sst>
 </file>
@@ -442,11 +438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190574928"/>
-        <c:axId val="190563424"/>
+        <c:axId val="-637376576"/>
+        <c:axId val="-595169552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190574928"/>
+        <c:axId val="-637376576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190563424"/>
+        <c:crossAx val="-595169552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190563424"/>
+        <c:axId val="-595169552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190574928"/>
+        <c:crossAx val="-637376576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1071,11 +1067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="319590384"/>
-        <c:axId val="319592160"/>
+        <c:axId val="-594462096"/>
+        <c:axId val="-594457936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="319590384"/>
+        <c:axId val="-594462096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319592160"/>
+        <c:crossAx val="-594457936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319592160"/>
+        <c:axId val="-594457936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319590384"/>
+        <c:crossAx val="-594462096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4301,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
@@ -5843,7 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
@@ -7385,7 +7381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
@@ -8920,597 +8916,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>25</v>
-      </c>
-      <c r="D33">
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <v>25</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>30</v>
-      </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>30</v>
-      </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>35</v>
-      </c>
-      <c r="C49">
-        <v>35</v>
-      </c>
-      <c r="D49">
-        <v>35</v>
-      </c>
-      <c r="E49">
-        <v>35</v>
-      </c>
-      <c r="F49">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>40</v>
-      </c>
-      <c r="D57">
-        <v>40</v>
-      </c>
-      <c r="E57">
-        <v>40</v>
-      </c>
-      <c r="F57">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>45</v>
-      </c>
-      <c r="C65">
-        <v>45</v>
-      </c>
-      <c r="D65">
-        <v>45</v>
-      </c>
-      <c r="E65">
-        <v>45</v>
-      </c>
-      <c r="F65">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>50</v>
-      </c>
-      <c r="C73">
-        <v>50</v>
-      </c>
-      <c r="D73">
-        <v>50</v>
-      </c>
-      <c r="E73">
-        <v>50</v>
-      </c>
-      <c r="F73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>100</v>
-      </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
-      <c r="D74">
-        <v>100</v>
-      </c>
-      <c r="E74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>57</v>
-      </c>
-      <c r="C75">
-        <v>47</v>
-      </c>
-      <c r="D75">
-        <v>39</v>
-      </c>
-      <c r="E75">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C76">
-        <v>0.47</v>
-      </c>
-      <c r="D76">
-        <v>0.39</v>
-      </c>
-      <c r="E76">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>7</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79">
-        <v>32</v>
-      </c>
-      <c r="C79">
-        <v>34</v>
-      </c>
-      <c r="D79">
-        <v>25</v>
-      </c>
-      <c r="E79">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>